--- a/forms/app/general_follow_up.xlsx
+++ b/forms/app/general_follow_up.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="199">
   <si>
     <t>list_name</t>
   </si>
@@ -588,33 +588,6 @@
   </si>
   <si>
     <t>db-object</t>
-  </si>
-  <si>
-    <t>traveler</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>nationality_other</t>
-  </si>
-  <si>
-    <t>Other Nationality</t>
   </si>
   <si>
     <t>patient_contact</t>
@@ -1234,13 +1207,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB46"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1625,647 +1598,637 @@
       <c r="AB9" s="33"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+    </row>
+    <row r="20" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B20" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C20" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+    </row>
+    <row r="21" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="33" t="s">
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+    </row>
+    <row r="25" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-    </row>
-    <row r="26" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-    </row>
-    <row r="27" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
     </row>
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>206</v>
+      <c r="A28" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>170</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="42"/>
@@ -2292,51 +2255,43 @@
       <c r="Z28" s="43"/>
       <c r="AA28" s="43"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
+    <row r="29" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>202</v>
-      </c>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="42"/>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
@@ -2362,43 +2317,39 @@
       <c r="Z30" s="43"/>
       <c r="AA30" s="43"/>
     </row>
-    <row r="31" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
     </row>
     <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="38"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
@@ -2425,15 +2376,9 @@
       <c r="AA32" s="43"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>180</v>
-      </c>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="42"/>
       <c r="E33" s="42"/>
       <c r="F33" s="42"/>
@@ -2460,15 +2405,9 @@
       <c r="AA33" s="43"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>181</v>
-      </c>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="42"/>
       <c r="E34" s="42"/>
       <c r="F34" s="42"/>
@@ -2494,38 +2433,34 @@
       <c r="Z34" s="43"/>
       <c r="AA34" s="43"/>
     </row>
-    <row r="35" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
@@ -2672,183 +2607,9 @@
       <c r="Z40" s="43"/>
       <c r="AA40" s="43"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="43"/>
-      <c r="AA41" s="43"/>
-    </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="43"/>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="43"/>
-    </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
-      <c r="AA44" s="43"/>
-    </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="43"/>
-      <c r="AA45" s="43"/>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="43"/>
-      <c r="Y46" s="43"/>
-      <c r="Z46" s="43"/>
-      <c r="AA46" s="43"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:F24 D25:E46">
+    <dataValidation type="list" allowBlank="1" sqref="D19:E40 E2:F18">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3523,7 +3284,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">NOW()</f>
-        <v>44121.558174074074</v>
+        <v>44121.570990972221</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">

--- a/forms/app/general_follow_up.xlsx
+++ b/forms/app/general_follow_up.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="197">
   <si>
     <t>list_name</t>
   </si>
@@ -332,16 +332,10 @@
     <t>hiv_statuses</t>
   </si>
   <si>
-    <t>patient_uuid</t>
-  </si>
-  <si>
     <t>known</t>
   </si>
   <si>
     <t>unknown</t>
-  </si>
-  <si>
-    <t>../inputs/contact/_id</t>
   </si>
   <si>
     <t>fp_methods</t>
@@ -1207,13 +1201,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB40"/>
+  <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1453,20 +1447,20 @@
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>182</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>184</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
@@ -1702,7 +1696,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>37</v>
@@ -1716,7 +1710,7 @@
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="40" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="M13" s="40"/>
       <c r="N13" s="40"/>
@@ -1740,7 +1734,7 @@
         <v>97</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>37</v>
@@ -1754,7 +1748,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
@@ -1778,7 +1772,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>37</v>
@@ -1791,9 +1785,7 @@
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
-      <c r="L15" s="40" t="s">
-        <v>142</v>
-      </c>
+      <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="40"/>
       <c r="O15" s="40"/>
@@ -1816,7 +1808,7 @@
         <v>97</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>37</v>
@@ -1852,7 +1844,7 @@
         <v>97</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>37</v>
@@ -1884,69 +1876,68 @@
       <c r="AB17" s="41"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="43"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+    </row>
+    <row r="19" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
     </row>
     <row r="20" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
@@ -1956,7 +1947,7 @@
         <v>186</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
@@ -1983,50 +1974,50 @@
       <c r="Z20" s="46"/>
       <c r="AA20" s="46"/>
     </row>
-    <row r="21" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>189</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>198</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="42"/>
@@ -2055,7 +2046,7 @@
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>190</v>
@@ -2088,78 +2079,78 @@
       <c r="Z23" s="43"/>
       <c r="AA23" s="43"/>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-    </row>
-    <row r="25" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+    <row r="24" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="46"/>
+      <c r="B24" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>178</v>
+      </c>
       <c r="D26" s="42"/>
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
@@ -2187,13 +2178,13 @@
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="38" t="s">
         <v>179</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>180</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
@@ -2220,73 +2211,67 @@
       <c r="Z27" s="43"/>
       <c r="AA27" s="43"/>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
-    </row>
-    <row r="29" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+    <row r="28" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
+      <c r="B28" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
@@ -2578,38 +2563,9 @@
       <c r="Z39" s="43"/>
       <c r="AA39" s="43"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43"/>
-      <c r="Z40" s="43"/>
-      <c r="AA40" s="43"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D19:E40 E2:F18">
+    <dataValidation type="list" allowBlank="1" sqref="D18:E39 E2:F17">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2662,13 +2618,13 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>163</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>165</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -2686,24 +2642,24 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -2721,13 +2677,13 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>170</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>172</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -2745,24 +2701,24 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3284,7 +3240,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">NOW()</f>
-        <v>44121.570990972221</v>
+        <v>44121.642152546294</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
@@ -4254,7 +4210,7 @@
         <v>99</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>30</v>
@@ -4285,7 +4241,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>38</v>
@@ -4338,115 +4294,115 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
         <v>55</v>
@@ -4463,26 +4419,26 @@
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4493,13 +4449,13 @@
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>119</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
@@ -4524,13 +4480,13 @@
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
@@ -4556,62 +4512,62 @@
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
         <v>122</v>
-      </c>
-      <c r="B51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
@@ -4623,40 +4579,40 @@
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B60" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>55</v>
@@ -4668,108 +4624,108 @@
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="21" t="s">
         <v>143</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" t="s">
         <v>154</v>
-      </c>
-      <c r="B69" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" t="s">
         <v>159</v>
       </c>
-      <c r="B73" t="s">
-        <v>161</v>
-      </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B74" t="s">
         <v>55</v>

--- a/forms/app/general_follow_up.xlsx
+++ b/forms/app/general_follow_up.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="196">
   <si>
     <t>list_name</t>
   </si>
@@ -608,19 +608,16 @@
     <t>&lt;b&gt;Patient household&lt;/b&gt;: ${patient_household}</t>
   </si>
   <si>
-    <t>patient_dob</t>
-  </si>
-  <si>
-    <t>patient_phone</t>
-  </si>
-  <si>
-    <t>patient_household</t>
-  </si>
-  <si>
     <t>d_phone</t>
   </si>
   <si>
     <t>Patient phone number: ${patient_phone}</t>
+  </si>
+  <si>
+    <t>patient_uuid</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
   </si>
 </sst>
 </file>
@@ -1201,13 +1198,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB39"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1696,7 +1693,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>37</v>
@@ -1708,9 +1705,8 @@
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40" t="s">
-        <v>131</v>
+      <c r="K13" s="40" t="s">
+        <v>195</v>
       </c>
       <c r="M13" s="40"/>
       <c r="N13" s="40"/>
@@ -1720,7 +1716,9 @@
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
+      <c r="U13" s="40" t="s">
+        <v>195</v>
+      </c>
       <c r="V13" s="41"/>
       <c r="W13" s="41"/>
       <c r="X13" s="41"/>
@@ -1734,7 +1732,7 @@
         <v>97</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>37</v>
@@ -1746,10 +1744,10 @@
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40" t="s">
-        <v>140</v>
-      </c>
+      <c r="K14" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="40"/>
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
@@ -1772,7 +1770,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>37</v>
@@ -1784,7 +1782,9 @@
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="K15" s="40" t="s">
+        <v>140</v>
+      </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="40"/>
@@ -1804,185 +1804,183 @@
       <c r="AB15" s="41"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+    </row>
+    <row r="17" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+    </row>
+    <row r="18" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-    </row>
-    <row r="19" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-    </row>
-    <row r="20" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>195</v>
+      <c r="B21" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
@@ -2009,51 +2007,43 @@
       <c r="Z21" s="43"/>
       <c r="AA21" s="43"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>191</v>
-      </c>
+    <row r="22" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="42"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
@@ -2079,43 +2069,51 @@
       <c r="Z23" s="43"/>
       <c r="AA23" s="43"/>
     </row>
-    <row r="24" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="38"/>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>179</v>
+      </c>
       <c r="D25" s="42"/>
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
@@ -2141,51 +2139,43 @@
       <c r="Z25" s="43"/>
       <c r="AA25" s="43"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>179</v>
-      </c>
+    <row r="26" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
@@ -2211,40 +2201,36 @@
       <c r="Z27" s="43"/>
       <c r="AA27" s="43"/>
     </row>
-    <row r="28" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -2273,7 +2259,7 @@
       <c r="Z29" s="43"/>
       <c r="AA29" s="43"/>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2302,7 +2288,7 @@
       <c r="Z30" s="43"/>
       <c r="AA30" s="43"/>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -2331,7 +2317,7 @@
       <c r="Z31" s="43"/>
       <c r="AA31" s="43"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -2505,67 +2491,9 @@
       <c r="Z37" s="43"/>
       <c r="AA37" s="43"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
-      <c r="AA38" s="43"/>
-    </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="43"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D18:E39 E2:F17">
+    <dataValidation type="list" allowBlank="1" sqref="D16:E37 E2:F15">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3240,7 +3168,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">NOW()</f>
-        <v>44121.642152546294</v>
+        <v>44121.653998379632</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">

--- a/forms/app/general_follow_up.xlsx
+++ b/forms/app/general_follow_up.xlsx
@@ -599,9 +599,6 @@
     <t>d_age</t>
   </si>
   <si>
-    <t>&lt;b&gt;Patient age&lt;/b&gt;: ${patient_age}</t>
-  </si>
-  <si>
     <t>d_household</t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Patient age&lt;/b&gt;: ${patient_id}</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1201,10 @@
   <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1693,7 +1693,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>37</v>
@@ -1706,7 +1706,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M13" s="40"/>
       <c r="N13" s="40"/>
@@ -1717,7 +1717,7 @@
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
       <c r="U13" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V13" s="41"/>
       <c r="W13" s="41"/>
@@ -1907,10 +1907,10 @@
         <v>187</v>
       </c>
       <c r="B19" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>192</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>193</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
@@ -1945,7 +1945,7 @@
         <v>188</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
@@ -1977,10 +1977,10 @@
         <v>187</v>
       </c>
       <c r="B21" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>190</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>191</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">NOW()</f>
-        <v>44121.653998379632</v>
+        <v>44121.66592777778</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">

--- a/forms/app/general_follow_up.xlsx
+++ b/forms/app/general_follow_up.xlsx
@@ -602,9 +602,6 @@
     <t>d_household</t>
   </si>
   <si>
-    <t>&lt;b&gt;Patient household&lt;/b&gt;: ${patient_household}</t>
-  </si>
-  <si>
     <t>d_phone</t>
   </si>
   <si>
@@ -617,7 +614,10 @@
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>&lt;b&gt;Patient age&lt;/b&gt;: ${patient_id}</t>
+    <t xml:space="preserve">&lt;b&gt;Patient age&lt;/b&gt;: </t>
+  </si>
+  <si>
+    <t>Household</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1201,10 @@
   <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1693,7 +1693,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>37</v>
@@ -1706,7 +1706,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M13" s="40"/>
       <c r="N13" s="40"/>
@@ -1717,7 +1717,7 @@
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
       <c r="U13" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V13" s="41"/>
       <c r="W13" s="41"/>
@@ -1907,10 +1907,10 @@
         <v>187</v>
       </c>
       <c r="B19" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>191</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>192</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
@@ -1945,7 +1945,7 @@
         <v>188</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
@@ -1980,7 +1980,7 @@
         <v>189</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">NOW()</f>
-        <v>44121.66592777778</v>
+        <v>44121.666993865743</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">

--- a/forms/app/general_follow_up.xlsx
+++ b/forms/app/general_follow_up.xlsx
@@ -605,9 +605,6 @@
     <t>d_phone</t>
   </si>
   <si>
-    <t>Patient phone number: ${patient_phone}</t>
-  </si>
-  <si>
     <t>patient_uuid</t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>Household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient phone number: </t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1204,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1693,7 +1693,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>37</v>
@@ -1706,7 +1706,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M13" s="40"/>
       <c r="N13" s="40"/>
@@ -1717,7 +1717,7 @@
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
       <c r="U13" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V13" s="41"/>
       <c r="W13" s="41"/>
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
@@ -1945,7 +1945,7 @@
         <v>188</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
@@ -1980,7 +1980,7 @@
         <v>189</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">NOW()</f>
-        <v>44121.666993865743</v>
+        <v>44121.667943865737</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">

--- a/forms/app/general_follow_up.xlsx
+++ b/forms/app/general_follow_up.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1200,7 +1200,7 @@
   </sheetPr>
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3104,7 +3104,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">NOW()</f>
-        <v>44121.667943865737</v>
+        <v>44121.724676967591</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
